--- a/medicine/Enfance/Gilbert_Dupuis_(dramaturge)/Gilbert_Dupuis_(dramaturge).xlsx
+++ b/medicine/Enfance/Gilbert_Dupuis_(dramaturge)/Gilbert_Dupuis_(dramaturge).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gilbert Dupuis,  né en 1953, est un dramaturge, comédien et metteur en scène québécois.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est diplômé du Conservatoire d'art dramatique de Montréal en 1975. il détient également une maîtrise en études littéraires de l'Université du Québec à Montréal. 
 Il fonde en 1975 avec des camarades le Théâtre de Quartier où il travaille près de dix ans en tant qu'auteur, comédien, metteur en scène et animateur.
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Théâtre
-Un jeu d'enfants, 1979, publié aux Éditions Québec/Amérique en 1980, écrit en collaboration avec Lise Gionet, Louis-Dominique Lavigne et Jean-Guy Leduc
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Un jeu d'enfants, 1979, publié aux Éditions Québec/Amérique en 1980, écrit en collaboration avec Lise Gionet, Louis-Dominique Lavigne et Jean-Guy Leduc
 Les Transporteurs de monde, 1982, publié aux Éditions coopératives de la Mêlée en 1984
 Mon oncle Marcel qui vague vague près du métro Berri, 1983-1989, publié aux Éditions de l'Hexagone en 1990
 Smack (1984)
@@ -560,13 +579,7 @@
 Histoires de cœur (1999)
 Les Caprices de Fred (1999)
 Complot à Bois-des-Filous (1999)
-La Vie imaginaire (2000)
-Romans
-L'Étoile noire (1996)
-Les Cendres de Correlieu (1998)
-La Chambre morte (2001)
-Littérature d'enfance et de jeunesse
-La Déconfiture du docteur Croche (1983), réédition en 2001</t>
+La Vie imaginaire (2000)</t>
         </is>
       </c>
     </row>
@@ -591,10 +604,86 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'Étoile noire (1996)
+Les Cendres de Correlieu (1998)
+La Chambre morte (2001)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gilbert_Dupuis_(dramaturge)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gilbert_Dupuis_(dramaturge)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La Déconfiture du docteur Croche (1983), réédition en 2001</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gilbert_Dupuis_(dramaturge)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gilbert_Dupuis_(dramaturge)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>1984 : Finaliste au Prix du Gouverneur général, Les Transporteurs de monde
 1991 : Lauréat du Prix du Gouverneur général de théâtre, Mon oncle Marcel qui vague vague près du métro Berri
